--- a/Lectures and Assignment 2/problem3_Nguyen Xuan Binh_887799.xlsx
+++ b/Lectures and Assignment 2/problem3_Nguyen Xuan Binh_887799.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/ilkka_j_leppanen_aalto_fi1/Documents/AALTO TEACHING/BUSINESS ANALYTICS 2 (2024)/assignment 2/answer templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-II\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{647C83F0-12BE-A149-8CBA-E5992BCE0A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F676587F-3FF8-BA4A-84F7-5F0BC8EF2F38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FE808-5FE1-449B-8C67-EDEB8881B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="14980" xr2:uid="{BBB29BED-96BF-5249-8910-3FADA7CE1B40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBB29BED-96BF-5249-8910-3FADA7CE1B40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Cost of study</t>
   </si>
@@ -157,6 +157,30 @@
   <si>
     <t>Provide the answers in the green cell areas below. You can use any other areas in the worksheet to formulate calculations, draw the decision tree, and insert the graphs</t>
   </si>
+  <si>
+    <t>Profits (€M)</t>
+  </si>
+  <si>
+    <t>Own design</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>s1: Low demand</t>
+  </si>
+  <si>
+    <t>–5</t>
+  </si>
+  <si>
+    <t>s2: Med demand</t>
+  </si>
+  <si>
+    <t>s3: High demand</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,8 +242,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF052025"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF052025"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +269,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -373,55 +416,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF98CA3E"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF98CA3E"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF98CA3E"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF98CA3E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -433,9 +490,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,6 +517,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>656493</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668215</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>5860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C708AD-124A-9AF3-662E-E9A8254FC901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886093" y="7491046"/>
+          <a:ext cx="1201614" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Decision: enter the market? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,371 +885,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E02AD6-5D37-AA4E-8EB5-CBC2909E446C}">
-  <dimension ref="A2:G52"/>
+  <dimension ref="A2:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="C7" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="5">
+        <f>1-D5</f>
+        <v>0.95</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:D14" si="0">1-D6</f>
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="C14" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-5</v>
+      </c>
+      <c r="E18" s="13">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>50</v>
+      </c>
+      <c r="E19" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>120</v>
+      </c>
+      <c r="E20" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="I25" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="I26" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="33">
+        <v>10</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="33">
+        <v>50</v>
+      </c>
+      <c r="K27" s="33">
+        <v>70</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="24"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B28" s="23"/>
+      <c r="I28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="33">
+        <v>120</v>
+      </c>
+      <c r="K28" s="33">
+        <v>90</v>
+      </c>
+      <c r="L28" s="33">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="24"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B31" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="27"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B36" s="26"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="27"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="B46" s="26"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lectures and Assignment 2/problem3_Nguyen Xuan Binh_887799.xlsx
+++ b/Lectures and Assignment 2/problem3_Nguyen Xuan Binh_887799.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-II\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FE808-5FE1-449B-8C67-EDEB8881B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3061577-DC10-4812-8CA7-2260A378BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBB29BED-96BF-5249-8910-3FADA7CE1B40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="535" xr2:uid="{BBB29BED-96BF-5249-8910-3FADA7CE1B40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Cost of study</t>
   </si>
@@ -158,38 +158,163 @@
     <t>Provide the answers in the green cell areas below. You can use any other areas in the worksheet to formulate calculations, draw the decision tree, and insert the graphs</t>
   </si>
   <si>
-    <t>Profits (€M)</t>
-  </si>
-  <si>
     <t>Own design</t>
   </si>
   <si>
-    <t>Licensing</t>
-  </si>
-  <si>
-    <t>s1: Low demand</t>
-  </si>
-  <si>
-    <t>–5</t>
-  </si>
-  <si>
-    <t>s2: Med demand</t>
-  </si>
-  <si>
-    <t>s3: High demand</t>
-  </si>
-  <si>
-    <t>Probability</t>
+    <t>Using law of total probability, we can calculate P(f) and P(~f)</t>
+  </si>
+  <si>
+    <r>
+      <t>P(f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P(~f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>si|f)</t>
+    </r>
+  </si>
+  <si>
+    <t>Then on column E, using Bayes theorem, we can find the P(si|f) and P(si|~f)</t>
+  </si>
+  <si>
+    <t>Decision table</t>
+  </si>
+  <si>
+    <t>Market study</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Market study result</t>
+  </si>
+  <si>
+    <t>Favourable</t>
+  </si>
+  <si>
+    <t>Unfavourable</t>
+  </si>
+  <si>
+    <t>License design</t>
+  </si>
+  <si>
+    <t>Design choice</t>
+  </si>
+  <si>
+    <t>Not enter market</t>
+  </si>
+  <si>
+    <t>E[profit] over demand</t>
+  </si>
+  <si>
+    <t>E[profit] after market study costs</t>
+  </si>
+  <si>
+    <r>
+      <t>P(si|~f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Max E[profit] over design choice</t>
+  </si>
+  <si>
+    <t>E[profit] before market study</t>
+  </si>
+  <si>
+    <t>Max E[profit] over market study</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st decision: buy a market study and decide to enter the market </t>
+  </si>
+  <si>
+    <t>2nd decision: if market study is favourable, proceed with using own design. If unfavourable, proceed with license design</t>
+  </si>
+  <si>
+    <t>the EVPI for this decision problem to analyse the value of having perfect information on the demand before making a decision.</t>
+  </si>
+  <si>
+    <t>Expected Profit with Perfect Information (EVwPI)</t>
+  </si>
+  <si>
+    <t>Expected Profit without Perfect Information (EVwoPI)</t>
+  </si>
+  <si>
+    <t>Max profit for each demand</t>
+  </si>
+  <si>
+    <t>Expected Profit without Sample Information (EVwoSI)</t>
+  </si>
+  <si>
+    <t>Expected Profit with Sample Information (EVwSI)</t>
+  </si>
+  <si>
+    <t>Efficiency = EVSI/EVPI*100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By how much should the conditional probability P(f | s3) decrease for it to be optimal not to buy the market study? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,19 +367,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF052025"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF052025"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -271,12 +383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -416,26 +528,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF98CA3E"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF98CA3E"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF98CA3E"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF98CA3E"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,9 +547,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,9 +566,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,14 +584,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,68 +654,54 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>656493</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:colOff>1057855</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>5860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1698598</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>157071</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C708AD-124A-9AF3-662E-E9A8254FC901}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E38C10D-9EFC-BEC6-6718-5DAA0E4ABD3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8886093" y="7491046"/>
-          <a:ext cx="1201614" cy="457199"/>
+          <a:off x="12259255" y="4450742"/>
+          <a:ext cx="7788303" cy="9399469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Decision: enter the market? </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -885,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E02AD6-5D37-AA4E-8EB5-CBC2909E446C}">
-  <dimension ref="A2:L52"/>
+  <dimension ref="A2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -897,19 +1016,29 @@
     <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="42.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
     <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="27.3984375" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -919,10 +1048,18 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="29">
+        <f>D5*C5+D6*C6+D7*C7</f>
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -935,10 +1072,19 @@
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="31">
+        <f>(D5*C5)/$H$4</f>
+        <v>1.913875598086125E-2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="29">
+        <f>D12*C12+D13*C13+D14*C14</f>
+        <v>0.47750000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -951,10 +1097,13 @@
       <c r="D6" s="5">
         <v>0.4</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="31">
+        <f t="shared" ref="E6:E7" si="0">(D6*C6)/$H$4</f>
+        <v>0.34449760765550247</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -967,31 +1116,39 @@
       <c r="D7" s="5">
         <v>0.95</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="E7" s="31">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1001,10 +1158,36 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1018,10 +1201,42 @@
         <f>1-D5</f>
         <v>0.95</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="31">
+        <f>(D12*C12)/$H$5</f>
+        <v>0.39790575916230364</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <f>SUMPRODUCT(D18:D20,E5:E7)</f>
+        <v>93.492822966507177</v>
+      </c>
+      <c r="K12">
+        <f>J12-$B$2</f>
+        <v>87.492822966507177</v>
+      </c>
+      <c r="L12" s="34">
+        <f>MAX(K12:K14)</f>
+        <v>87.492822966507177</v>
+      </c>
+      <c r="M12" s="34">
+        <f>L12*H4+L15*H5</f>
+        <v>65.224999999999994</v>
+      </c>
+      <c r="N12" s="34">
+        <f>MAX(M12,M18)</f>
+        <v>65.224999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1032,13 +1247,36 @@
         <v>0.45</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:D14" si="0">1-D6</f>
+        <f t="shared" ref="D13:D14" si="1">1-D6</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="31">
+        <f t="shared" ref="E13:E14" si="2">(D13*C13)/$H$5</f>
+        <v>0.56544502617801051</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <f>SUMPRODUCT(E18:E20,E5:E7)</f>
+        <v>81.578947368421055</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K16" si="3">J13-$B$2</f>
+        <v>75.578947368421055</v>
+      </c>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1049,190 +1287,330 @@
         <v>0.35</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="E14" s="31">
+        <f t="shared" si="2"/>
+        <v>3.6649214659685896E-2</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="7"/>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <f>SUMPRODUCT(D18:D20,E12:E14)</f>
+        <v>30.680628272251312</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>24.680628272251312</v>
+      </c>
+      <c r="L15" s="34">
+        <f>MAX(K15:K17)</f>
+        <v>40.858638743455501</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="7"/>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <f>SUMPRODUCT(E18:E20,E12:E14)</f>
+        <v>46.858638743455501</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>40.858638743455501</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>0</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>-5</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>10</v>
       </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F18" s="12">
+        <f>MAX(C18:E18)</f>
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <f>SUMPRODUCT(D18:D20,C5:C7)</f>
+        <v>63.5</v>
+      </c>
+      <c r="K18">
+        <f>J18</f>
+        <v>63.5</v>
+      </c>
+      <c r="L18" s="34">
+        <f>MAX(K18:K20)</f>
+        <v>65</v>
+      </c>
+      <c r="M18" s="34">
+        <f>L18</f>
+        <v>65</v>
+      </c>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>50</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F19" s="12">
+        <f t="shared" ref="F19:F20" si="4">MAX(C19:E19)</f>
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <f>SUMPRODUCT(E18:E20,C5:C7)</f>
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <f>J19</f>
+        <v>65</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>0</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>120</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="F20" s="12">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="I25" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="I26" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="33">
-        <v>10</v>
-      </c>
-      <c r="L26" s="33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="33">
-        <v>50</v>
-      </c>
-      <c r="K27" s="33">
-        <v>70</v>
-      </c>
-      <c r="L27" s="33">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="I28" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="33">
-        <v>120</v>
-      </c>
-      <c r="K28" s="33">
-        <v>90</v>
-      </c>
-      <c r="L28" s="33">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="44">
+        <f>N12</f>
+        <v>65.224999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="44">
+        <f>D32-D31</f>
+        <v>10.5</v>
+      </c>
+      <c r="D31" s="42">
+        <f>M18</f>
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D32" s="42">
+        <f>SUMPRODUCT(F18:F20,C5:C7)</f>
+        <v>75.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1243,19 +1621,45 @@
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="43">
+        <f>D35-D34</f>
+        <v>0.22499999999999432</v>
+      </c>
+      <c r="D34" s="42">
+        <f>L18</f>
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="23">
+        <f>(B34/B31)*100</f>
+        <v>2.1428571428570886</v>
+      </c>
+      <c r="D35" s="42">
+        <f>M12</f>
+        <v>65.224999999999994</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="45">
+        <f>B34</f>
+        <v>0.22499999999999432</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1266,7 +1670,10 @@
       <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="21"/>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1274,22 +1681,22 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1300,13 +1707,13 @@
       <c r="A45" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1319,33 +1726,43 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N12:N20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Lectures and Assignment 2/problem3_Nguyen Xuan Binh_887799.xlsx
+++ b/Lectures and Assignment 2/problem3_Nguyen Xuan Binh_887799.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-II\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3061577-DC10-4812-8CA7-2260A378BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B409DBB7-78CE-49E8-8A8A-A32635A0E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="535" xr2:uid="{BBB29BED-96BF-5249-8910-3FADA7CE1B40}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -596,44 +596,41 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E02AD6-5D37-AA4E-8EB5-CBC2909E446C}">
   <dimension ref="A2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -1162,28 +1159,28 @@
         <v>50</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1223,15 +1220,15 @@
         <f>J12-$B$2</f>
         <v>87.492822966507177</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="44">
         <f>MAX(K12:K14)</f>
         <v>87.492822966507177</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="44">
         <f>L12*H4+L15*H5</f>
         <v>65.224999999999994</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="44">
         <f>MAX(M12,M18)</f>
         <v>65.224999999999994</v>
       </c>
@@ -1272,9 +1269,9 @@
         <f t="shared" ref="K13:K16" si="3">J13-$B$2</f>
         <v>75.578947368421055</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1311,9 +1308,9 @@
         <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
@@ -1338,12 +1335,12 @@
         <f t="shared" si="3"/>
         <v>24.680628272251312</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="44">
         <f>MAX(K15:K17)</f>
         <v>40.858638743455501</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
@@ -1368,9 +1365,9 @@
         <f t="shared" si="3"/>
         <v>40.858638743455501</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
@@ -1403,9 +1400,9 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1430,7 +1427,7 @@
       <c r="G18" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="33" t="s">
         <v>54</v>
       </c>
       <c r="I18" t="s">
@@ -1444,15 +1441,15 @@
         <f>J18</f>
         <v>63.5</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="44">
         <f>MAX(K18:K20)</f>
         <v>65</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="44">
         <f>L18</f>
         <v>65</v>
       </c>
-      <c r="N18" s="34"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1477,7 +1474,7 @@
       <c r="G19" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="33" t="s">
         <v>54</v>
       </c>
       <c r="I19" t="s">
@@ -1491,9 +1488,9 @@
         <f>J19</f>
         <v>65</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1518,7 +1515,7 @@
       <c r="G20" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="33" t="s">
         <v>54</v>
       </c>
       <c r="I20" t="s">
@@ -1530,9 +1527,9 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
@@ -1549,32 +1546,32 @@
       <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="36">
         <f>N12</f>
         <v>65.224999999999994</v>
       </c>
@@ -1591,11 +1588,11 @@
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="36">
         <f>D32-D31</f>
         <v>10.5</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="34">
         <f>M18</f>
         <v>65</v>
       </c>
@@ -1604,7 +1601,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D32" s="42">
+      <c r="D32" s="34">
         <f>SUMPRODUCT(F18:F20,C5:C7)</f>
         <v>75.5</v>
       </c>
@@ -1621,11 +1618,11 @@
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="35">
         <f>D35-D34</f>
         <v>0.22499999999999432</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="34">
         <f>L18</f>
         <v>65</v>
       </c>
@@ -1641,7 +1638,7 @@
         <f>(B34/B31)*100</f>
         <v>2.1428571428570886</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="34">
         <f>M12</f>
         <v>65.224999999999994</v>
       </c>
@@ -1653,7 +1650,7 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="37">
         <f>B34</f>
         <v>0.22499999999999432</v>
       </c>
@@ -1754,14 +1751,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N12:N20"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N12:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
